--- a/pred_ohlcv/54_21/2020-01-15 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LTC ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-1251.75006225</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1241.74996225</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1271.72896225</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-893.4644357700003</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-664.8283357700002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-664.8283357700002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-690.7535357700002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-670.8601357700002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-656.2109357700002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-702.2109357700002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-702.9268357700003</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-698.7481357700002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-678.2264357700002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-778.2264357700002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-771.3384357700002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-771.4884357700001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-781.9141357700001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-783.9141357700001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-780.1062357700001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-818.6065357700002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-828.7113357700001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-864.5040357700001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-910.6666357700001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-914.7885357700001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-808.8074357700001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-762.2661357700001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-933.0365357700001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-940.0990357700001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-937.0176357700001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-942.52553577</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-939.44143577</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-940.46683577</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1054.73893577</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1055.73893577</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1113.18523577</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1110.81053577</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1109.02723577</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1144.56103577</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1141.90883577</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1142.90883577</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1144.37366104</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-970.9599610399996</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-870.1706610399996</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-817.0675383499996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-840.0742383499996</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-832.6819383499997</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-854.6322383499996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-811.6669383499997</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-811.6669383499997</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-708.0839383499997</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-674.9225383499997</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-693.9253383499997</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-677.6332383499997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>508.2056592000005</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3134.506703700001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3263.587559200001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3681.171067560001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3136.741667560001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3085.590467560001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3080.722395990001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2798.529395990001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3048.872495990001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3198.318995990001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3107.533295990001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3123.557295990001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3031.660195990001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3037.045095990001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3017.801995990001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2529.51299599</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1647.595095990001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1915.916395990001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1770.413795990001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1962.76479599</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1962.76479599</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1934.32309599</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1998.44909599</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1999.60499599</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2002.51439599</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2004.20799599</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2003.54579599</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2035.382995990001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3632.811536450001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3633.950336450001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3623.950336450001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3623.258636450002</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3818.243629050002</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3973.278329050002</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3940.943429050002</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4706.459429050003</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4566.761629050003</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4590.043229050003</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4575.626829050003</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4617.986229050003</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4617.268529050003</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4611.390216730003</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4646.734016730003</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4927.082116730003</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>5335.934549230003</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>5021.534349230003</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>5104.876538030004</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>5029.699999170004</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5062.237399170004</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5121.991399170004</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5116.354299170004</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5117.826719900004</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5183.409219900004</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>5219.551686560004</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>5119.072186560004</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>5120.417086560004</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4733.278386560003</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4549.090786560003</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4553.590786560003</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4575.589786560003</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>2616.491986560003</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1881.078886560003</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>856.1542865600024</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>656.1542865600024</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>648.8492865600025</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>538.0245865600025</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>494.4725865600025</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>499.3055865600025</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>514.3002865600025</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>472.7279865600025</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>473.4169865600026</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>393.4942654900025</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3324.827569660003</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3323.911469660003</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3375.902869660003</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3379.021669660003</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5052.203572120003</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5041.522904280003</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>5001.817404280004</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>5063.607004280004</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>5054.758604280004</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5102.287504280004</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5193.537804280004</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5343.453704280004</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5312.818804280004</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5199.136240180004</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5216.016940180004</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5230.081940180004</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5233.703140180003</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5249.163583020003</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5261.899183020003</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5697.944883020003</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>6074.699883020003</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>6244.771683020002</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>6338.503683020002</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 LTC ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-1251.75006225</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1241.74996225</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1271.72896225</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1297.81196225</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-701.2117357700002</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-698.7481357700002</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-678.2264357700002</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-778.2264357700002</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-771.3384357700002</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-771.4884357700001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-781.9141357700001</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-783.9141357700001</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-780.1062357700001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-818.6065357700002</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-813.9127357700002</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-828.7113357700001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-864.5040357700001</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-859.1847357700001</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-800.3605357700001</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-910.6666357700001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-914.7885357700001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-815.4985357700001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-812.4199357700001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-808.8074357700001</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-812.2661357700001</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-762.2661357700001</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-933.0365357700001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-940.0990357700001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-937.0176357700001</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-942.52553577</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-939.44143577</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-940.46683577</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1010.06683577</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1054.73893577</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-811.6669383499997</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-708.0839383499997</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-674.9225383499997</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-693.9253383499997</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-677.6332383499997</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>508.2056592000005</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3342.927503700001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>3134.506703700001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3263.587559200001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3681.171067560001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3136.741667560001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3085.590467560001</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3080.722395990001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2798.529395990001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3048.872495990001</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3198.318995990001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3107.533295990001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3123.557295990001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3031.660195990001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3037.045095990001</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3017.801995990001</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2529.51299599</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2618.171595990001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1647.595095990001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1915.916395990001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1770.413795990001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1962.76479599</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1962.76479599</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1934.32309599</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1998.44909599</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1999.60499599</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2002.51439599</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2004.20799599</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2003.54579599</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2001.60899599</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1981.699295990001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1921.884595990001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2059.632095990001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2035.072995990001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2035.382995990001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2025.204995990001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3632.811536450001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>3632.803036450001</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3633.950336450001</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>3623.950336450001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3623.258636450002</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3632.803236450002</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3632.399236450002</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3696.991429050002</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3818.243629050002</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3973.278329050002</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3940.943429050002</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3940.935029050002</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3942.235029050002</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4706.459429050003</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4566.761629050003</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4590.043229050003</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4575.626829050003</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4617.986229050003</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4617.268529050003</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4617.143316730003</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4611.390216730003</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4646.734016730003</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>4644.259416730003</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>4927.082116730003</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>5335.934549230003</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>5076.252649230003</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>5021.534349230003</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>5104.876538030004</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5096.511899170004</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>5029.699999170004</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5062.237399170004</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5121.991399170004</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5116.354299170004</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>5117.826719900004</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>5183.409219900004</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>5219.551686560004</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>5119.072186560004</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>5120.417086560004</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>4733.278386560003</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>4549.090786560003</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>4553.590786560003</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>4575.589786560003</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>2616.491986560003</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1881.078886560003</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>856.1542865600024</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>656.1542865600024</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>648.8492865600025</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>538.0245865600025</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>494.4725865600025</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>499.3055865600025</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>508.6875865600025</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>514.3002865600025</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>472.7279865600025</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>473.4169865600026</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>393.4942654900025</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3324.827569660003</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3323.911469660003</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3375.902869660003</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3379.021669660003</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>4684.201365440002</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>4887.745472120002</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>4968.850272120002</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>4999.986272120002</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>4999.736272120002</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>5024.325772120003</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>5052.203572120003</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>5051.433504280003</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>5041.522904280003</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>4973.752404280003</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>5102.287504280004</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>5196.419504280004</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>5193.537804280004</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>5343.453704280004</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>5312.818804280004</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>5199.136240180004</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>5216.016940180004</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>5230.081940180004</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>5233.703140180003</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>5249.163583020003</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>5261.899183020003</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>5697.944883020003</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>6074.699883020003</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>6244.771683020002</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>6338.503683020002</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
